--- a/orangeHRM-TESTCASES.xlsx
+++ b/orangeHRM-TESTCASES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="279">
   <si>
     <t>S. No.</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>TC_My_Info_002</t>
-  </si>
-  <si>
-    <t>Velidate login with valid ESS username and valid password</t>
   </si>
   <si>
     <t>1) Launch Browser  
@@ -1186,6 +1183,21 @@
   </si>
   <si>
     <t>No. Of Test Cases</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Validate login with valid ESS username and valid password</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1221,19 +1233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -1246,6 +1246,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1294,14 +1306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,22 +1339,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1366,8 +1387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D44" totalsRowShown="0">
-  <autoFilter ref="A1:D44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D43" totalsRowShown="0">
+  <autoFilter ref="A1:D43"/>
   <tableColumns count="4">
     <tableColumn id="1" name="S. No."/>
     <tableColumn id="2" name="Req#ID"/>
@@ -1643,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,11 +1711,11 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>261</v>
+      <c r="E7" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1702,11 +1723,11 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>262</v>
+      <c r="E8" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1714,11 +1735,11 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>271</v>
+      <c r="E9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1726,49 +1747,49 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>272</v>
+      <c r="E10" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
         <v>265</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="38.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>269</v>
+      <c r="E13" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1776,11 +1797,11 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>268</v>
+      <c r="E14" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1808,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1832,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1845,7 +1866,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
     </row>
@@ -1859,7 +1880,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1894,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1887,7 +1908,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1901,7 +1922,7 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1915,7 +1936,7 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1929,7 +1950,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1943,7 +1964,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1957,7 +1978,7 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1971,7 +1992,7 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +2006,7 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1999,7 +2020,7 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2013,7 +2034,7 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2027,7 +2048,7 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2041,7 +2062,7 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2055,7 +2076,7 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2090,7 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2104,7 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2097,7 +2118,7 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2132,7 @@
       <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2125,7 +2146,7 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2139,7 +2160,7 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2153,7 +2174,7 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2167,7 +2188,7 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2181,7 +2202,7 @@
       <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2195,7 +2216,7 @@
       <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +2230,7 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2223,7 +2244,7 @@
       <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +2258,7 @@
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2251,7 +2272,7 @@
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2265,7 +2286,7 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2279,7 +2300,7 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2293,7 +2314,7 @@
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2307,7 +2328,7 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2321,7 +2342,7 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2335,7 +2356,7 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2349,7 +2370,7 @@
       <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2363,7 +2384,7 @@
       <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2377,7 +2398,7 @@
       <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2391,7 +2412,7 @@
       <c r="C41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2405,7 +2426,7 @@
       <c r="C42" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2419,12 +2440,9 @@
       <c r="C43" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" s="5"/>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2453,231 +2471,294 @@
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="21" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="93" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="102.75" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="108.75" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="93" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="102.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="108.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>111</v>
+      <c r="H8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
@@ -2686,24 +2767,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="69.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>67</v>
@@ -2715,21 +2796,21 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="142.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>67</v>
@@ -2741,21 +2822,21 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="175.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>67</v>
@@ -2767,21 +2848,21 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>67</v>
@@ -2789,25 +2870,25 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="94.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>67</v>
@@ -2816,24 +2897,24 @@
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="152.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>67</v>
@@ -2845,21 +2926,21 @@
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>67</v>
@@ -2867,25 +2948,25 @@
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="105">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>67</v>
@@ -2897,21 +2978,21 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="204.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>67</v>
@@ -2923,21 +3004,21 @@
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>67</v>
@@ -2949,21 +3030,21 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="120">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
@@ -2972,24 +3053,24 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" ht="195">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>67</v>
@@ -3001,21 +3082,21 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="127.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
@@ -3023,25 +3104,25 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="141" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -3053,21 +3134,21 @@
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="177" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
@@ -3079,21 +3160,21 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="66.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
@@ -3105,21 +3186,21 @@
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="127.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>67</v>
@@ -3127,25 +3208,25 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>177</v>
+      <c r="E26" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="189.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -3157,21 +3238,21 @@
         <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>67</v>
@@ -3183,21 +3264,21 @@
         <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="120">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
@@ -3209,21 +3290,21 @@
         <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="130.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
@@ -3235,21 +3316,21 @@
         <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>67</v>
@@ -3261,21 +3342,21 @@
         <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="120">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>67</v>
@@ -3287,21 +3368,21 @@
         <v>42</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="138.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>67</v>
@@ -3313,21 +3394,21 @@
         <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>67</v>
@@ -3339,21 +3420,21 @@
         <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="96.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
@@ -3365,21 +3446,21 @@
         <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="139.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -3391,21 +3472,21 @@
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A37" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
@@ -3417,21 +3498,21 @@
         <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="100.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>67</v>
@@ -3443,21 +3524,21 @@
         <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="120">
       <c r="A39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>67</v>
@@ -3469,21 +3550,21 @@
         <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" ht="60">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>67</v>
@@ -3495,151 +3576,151 @@
         <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:8" s="8" customFormat="1" ht="120">
+      <c r="A41" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" ht="120">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" ht="190.5" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="A42" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" ht="60">
-      <c r="A43" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" ht="120">
-      <c r="A44" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="A44" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" ht="120">
-      <c r="A45" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="A45" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="6:6" ht="45">
-      <c r="F52" s="4" t="s">
-        <v>251</v>
+      <c r="F52" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3652,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3663,441 +3744,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="18"/>
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="18"/>
+      <c r="B6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="B7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+      <c r="C12" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="18"/>
+      <c r="B17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="B19" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="B20" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="B21" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="B22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="21">
+      <c r="B24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="18"/>
+      <c r="A26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="18"/>
+      <c r="A29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="18"/>
+      <c r="A32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="18"/>
+      <c r="A35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="18"/>
+      <c r="A36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C37" s="18"/>
+      <c r="A37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="18"/>
+      <c r="A38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="18"/>
+      <c r="A39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="18"/>
+      <c r="A40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" s="18"/>
+      <c r="A41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="18"/>
+      <c r="A42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="19" t="s">
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="16" t="s">
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C46" s="18"/>
+      <c r="B46" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/orangeHRM-TESTCASES.xlsx
+++ b/orangeHRM-TESTCASES.xlsx
@@ -1224,7 +1224,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,8 +1261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1294,11 +1300,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1364,6 +1383,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2457,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2722,65 +2753,68 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="125.25" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" s="15" customFormat="1" ht="125.25" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="29" t="s">
         <v>111</v>
       </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="69.75" customHeight="1">
       <c r="A10" s="1" t="s">

--- a/orangeHRM-TESTCASES.xlsx
+++ b/orangeHRM-TESTCASES.xlsx
@@ -1224,7 +1224,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1381,9 +1387,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1395,6 +1398,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2488,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2753,120 +2770,126 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" ht="125.25" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:11" s="34" customFormat="1" ht="125.25" customHeight="1">
+      <c r="A9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="69.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" s="30" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="28" t="s">
         <v>115</v>
       </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="28" t="s">
         <v>118</v>
       </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="175.5" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -3795,7 +3818,7 @@
       <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="29">
         <v>7</v>
       </c>
     </row>
@@ -3806,7 +3829,7 @@
       <c r="B3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
@@ -3815,7 +3838,7 @@
       <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
@@ -3824,7 +3847,7 @@
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
@@ -3833,7 +3856,7 @@
       <c r="B6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
@@ -3842,7 +3865,7 @@
       <c r="B7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
@@ -3851,7 +3874,7 @@
       <c r="B8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
@@ -3860,7 +3883,7 @@
       <c r="B9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
@@ -3869,7 +3892,7 @@
       <c r="B10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
@@ -3878,7 +3901,7 @@
       <c r="B11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
@@ -3887,7 +3910,7 @@
       <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3898,7 +3921,7 @@
       <c r="B13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
@@ -3907,7 +3930,7 @@
       <c r="B14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
@@ -3916,7 +3939,7 @@
       <c r="B15" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3927,7 +3950,7 @@
       <c r="B16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
@@ -3936,7 +3959,7 @@
       <c r="B17" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="16" t="s">
@@ -3945,7 +3968,7 @@
       <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="29">
         <v>4</v>
       </c>
     </row>
@@ -3956,7 +3979,7 @@
       <c r="B19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
@@ -3965,7 +3988,7 @@
       <c r="B20" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
@@ -3974,7 +3997,7 @@
       <c r="B21" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
@@ -4016,7 +4039,7 @@
       <c r="B25" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="29">
         <v>18</v>
       </c>
     </row>
@@ -4027,7 +4050,7 @@
       <c r="B26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="14" t="s">
@@ -4036,7 +4059,7 @@
       <c r="B27" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="16" t="s">
@@ -4045,7 +4068,7 @@
       <c r="B28" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="14" t="s">
@@ -4054,7 +4077,7 @@
       <c r="B29" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="16" t="s">
@@ -4063,7 +4086,7 @@
       <c r="B30" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="14" t="s">
@@ -4072,7 +4095,7 @@
       <c r="B31" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
@@ -4081,7 +4104,7 @@
       <c r="B32" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
@@ -4090,7 +4113,7 @@
       <c r="B33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="16" t="s">
@@ -4099,7 +4122,7 @@
       <c r="B34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
@@ -4108,7 +4131,7 @@
       <c r="B35" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
@@ -4117,7 +4140,7 @@
       <c r="B36" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
@@ -4126,7 +4149,7 @@
       <c r="B37" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
@@ -4135,7 +4158,7 @@
       <c r="B38" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
@@ -4144,7 +4167,7 @@
       <c r="B39" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
@@ -4153,7 +4176,7 @@
       <c r="B40" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
@@ -4162,7 +4185,7 @@
       <c r="B41" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="16" t="s">
@@ -4171,7 +4194,7 @@
       <c r="B42" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
@@ -4180,7 +4203,7 @@
       <c r="B43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="29">
         <v>4</v>
       </c>
     </row>
@@ -4191,7 +4214,7 @@
       <c r="B44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
@@ -4200,7 +4223,7 @@
       <c r="B45" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
@@ -4209,7 +4232,7 @@
       <c r="B46" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="20"/>

--- a/orangeHRM-TESTCASES.xlsx
+++ b/orangeHRM-TESTCASES.xlsx
@@ -1224,7 +1224,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,12 +1258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1393,25 +1387,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2505,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2804,144 +2795,150 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="34" customFormat="1" ht="125.25" customHeight="1">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:11" s="30" customFormat="1" ht="125.25" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" s="30" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="69.75" customHeight="1">
+      <c r="A10" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="175.5" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="24" t="s">
         <v>121</v>
       </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="24" t="s">
         <v>125</v>
       </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="94.5" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -3818,7 +3815,7 @@
       <c r="B2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="31">
         <v>7</v>
       </c>
     </row>
@@ -3829,7 +3826,7 @@
       <c r="B3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
@@ -3838,7 +3835,7 @@
       <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
@@ -3847,7 +3844,7 @@
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
@@ -3856,7 +3853,7 @@
       <c r="B6" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
@@ -3865,7 +3862,7 @@
       <c r="B7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
@@ -3874,7 +3871,7 @@
       <c r="B8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
@@ -3883,7 +3880,7 @@
       <c r="B9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
@@ -3892,7 +3889,7 @@
       <c r="B10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
@@ -3901,7 +3898,7 @@
       <c r="B11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
@@ -3910,7 +3907,7 @@
       <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>3</v>
       </c>
     </row>
@@ -3921,7 +3918,7 @@
       <c r="B13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
@@ -3930,7 +3927,7 @@
       <c r="B14" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
@@ -3939,7 +3936,7 @@
       <c r="B15" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="31">
         <v>3</v>
       </c>
     </row>
@@ -3950,7 +3947,7 @@
       <c r="B16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
@@ -3959,7 +3956,7 @@
       <c r="B17" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="16" t="s">
@@ -3968,7 +3965,7 @@
       <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="31">
         <v>4</v>
       </c>
     </row>
@@ -3979,7 +3976,7 @@
       <c r="B19" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
@@ -3988,7 +3985,7 @@
       <c r="B20" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
@@ -3997,7 +3994,7 @@
       <c r="B21" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
@@ -4039,7 +4036,7 @@
       <c r="B25" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="31">
         <v>18</v>
       </c>
     </row>
@@ -4050,7 +4047,7 @@
       <c r="B26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="14" t="s">
@@ -4059,7 +4056,7 @@
       <c r="B27" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="16" t="s">
@@ -4068,7 +4065,7 @@
       <c r="B28" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="14" t="s">
@@ -4077,7 +4074,7 @@
       <c r="B29" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="16" t="s">
@@ -4086,7 +4083,7 @@
       <c r="B30" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="31"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="14" t="s">
@@ -4095,7 +4092,7 @@
       <c r="B31" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="31"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
@@ -4104,7 +4101,7 @@
       <c r="B32" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="31"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
@@ -4113,7 +4110,7 @@
       <c r="B33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="16" t="s">
@@ -4122,7 +4119,7 @@
       <c r="B34" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
@@ -4131,7 +4128,7 @@
       <c r="B35" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
@@ -4140,7 +4137,7 @@
       <c r="B36" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
@@ -4149,7 +4146,7 @@
       <c r="B37" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
@@ -4158,7 +4155,7 @@
       <c r="B38" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
@@ -4167,7 +4164,7 @@
       <c r="B39" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
@@ -4176,7 +4173,7 @@
       <c r="B40" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
@@ -4185,7 +4182,7 @@
       <c r="B41" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="16" t="s">
@@ -4194,7 +4191,7 @@
       <c r="B42" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
@@ -4203,7 +4200,7 @@
       <c r="B43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="31">
         <v>4</v>
       </c>
     </row>
@@ -4214,7 +4211,7 @@
       <c r="B44" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="29"/>
+      <c r="C44" s="31"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
@@ -4223,7 +4220,7 @@
       <c r="B45" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
@@ -4232,7 +4229,7 @@
       <c r="B46" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="31"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="20"/>

--- a/orangeHRM-TESTCASES.xlsx
+++ b/orangeHRM-TESTCASES.xlsx
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2941,30 +2941,33 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="24" t="s">
         <v>129</v>
       </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="152.25" customHeight="1">
       <c r="A15" s="1" t="s">
